--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Southern Giant Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Southern Giant Petrel_Prince Edward Islands.xlsx
@@ -4283,13 +4283,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2084DD-DE6E-4291-B979-BD29D8E1D488}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2117215E-8C36-434B-86AC-73E0499789D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B60ED6-733B-4995-BDEC-69FD459A0AC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6487FA7C-2B8C-44C2-AA2C-D91B2F3CC561}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B3A8F85-6234-408A-8D3E-F5A1B0CE6F9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCCB2EB-AC94-4F02-9E4E-A328476049BF}"/>
 </file>